--- a/KR_SAHAKORN/KR_SAHAKORN/bin/KR_SAHAKORN_SIGN_BOOK_04-11-2023_10-11-2023_10-11-2023_19-52-30.xlsx
+++ b/KR_SAHAKORN/KR_SAHAKORN/bin/KR_SAHAKORN_SIGN_BOOK_04-11-2023_10-11-2023_10-11-2023_19-52-30.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2380\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{B6EDE4CE-11C6-4AC3-AF6E-7D0C31290196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA08372E-D8E0-45DB-921E-685F5F1E40FB}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{B6EDE4CE-11C6-4AC3-AF6E-7D0C31290196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1763DDFA-FFBC-4A91-8073-7423D3F09F52}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,6 +245,12 @@
     <t>ข้าวเหนียว</t>
   </si>
   <si>
+    <t>มาม่าซอง หมูสับ * 40</t>
+  </si>
+  <si>
+    <t>แชมพู ซันซิล 60/70ml * 6</t>
+  </si>
+  <si>
     <t>พริกป่น</t>
   </si>
   <si>
@@ -252,12 +258,6 @@
   </si>
   <si>
     <t>แตงกวา 5 โล</t>
-  </si>
-  <si>
-    <t>มาม่าซอง หมูสับ * 40</t>
-  </si>
-  <si>
-    <t>แชมพู ซันซิล 60/70ml * 6</t>
   </si>
   <si>
     <t>เต้าหู้ไข่ไก่ ตราแม่บ้าน 105g*10</t>
@@ -416,9 +416,6 @@
     <t>แป้งโยคี 100g * 6</t>
   </si>
   <si>
-    <t>ต๋อย</t>
-  </si>
-  <si>
     <t>ต่อ</t>
   </si>
   <si>
@@ -438,6 +435,9 @@
   </si>
   <si>
     <t>ปลาส้ม 35</t>
+  </si>
+  <si>
+    <t>ต๋อย</t>
   </si>
   <si>
     <t>นาม</t>
@@ -464,12 +464,6 @@
     <t>อิชิตัน ชาเขียว 280ml * 24</t>
   </si>
   <si>
-    <t>พลอย</t>
-  </si>
-  <si>
-    <t>โคโคริ รสโกโก้ * 12+1</t>
-  </si>
-  <si>
     <t>พงศ์</t>
   </si>
   <si>
@@ -477,6 +471,12 @@
   </si>
   <si>
     <t>เบนโตะ long 10g * 6</t>
+  </si>
+  <si>
+    <t>พลอย</t>
+  </si>
+  <si>
+    <t>โคโคริ รสโกโก้ * 12+1</t>
   </si>
   <si>
     <t>มล</t>
@@ -1499,12 +1499,13 @@
   <dimension ref="A1:I949"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2435,7 +2436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" hidden="1">
       <c r="A33">
         <v>14864</v>
       </c>
@@ -2464,7 +2465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" hidden="1">
       <c r="A34">
         <v>14864</v>
       </c>
@@ -2493,7 +2494,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" hidden="1">
       <c r="A35">
         <v>14864</v>
       </c>
@@ -2522,7 +2523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" hidden="1">
       <c r="A36">
         <v>14864</v>
       </c>
@@ -2551,7 +2552,7 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" hidden="1">
       <c r="A37">
         <v>14901</v>
       </c>
@@ -2580,7 +2581,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" hidden="1">
       <c r="A38">
         <v>14901</v>
       </c>
@@ -2609,7 +2610,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" hidden="1">
       <c r="A39">
         <v>14901</v>
       </c>
@@ -2638,7 +2639,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" hidden="1">
       <c r="A40">
         <v>14901</v>
       </c>
@@ -2667,7 +2668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" hidden="1">
       <c r="A41">
         <v>14901</v>
       </c>
@@ -2696,7 +2697,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" hidden="1">
       <c r="A42">
         <v>14901</v>
       </c>
@@ -2725,7 +2726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" hidden="1">
       <c r="A43">
         <v>14901</v>
       </c>
@@ -2754,7 +2755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" hidden="1">
       <c r="A44">
         <v>14901</v>
       </c>
@@ -2783,7 +2784,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" hidden="1">
       <c r="A45">
         <v>14901</v>
       </c>
@@ -2812,7 +2813,7 @@
         <v>5.28</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" hidden="1">
       <c r="A46">
         <v>14901</v>
       </c>
@@ -2841,7 +2842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" hidden="1">
       <c r="A47">
         <v>14901</v>
       </c>
@@ -2870,7 +2871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" hidden="1">
       <c r="A48">
         <v>14901</v>
       </c>
@@ -2899,7 +2900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" hidden="1">
       <c r="A49">
         <v>14926</v>
       </c>
@@ -2928,7 +2929,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" hidden="1">
       <c r="A50">
         <v>14926</v>
       </c>
@@ -2957,7 +2958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" hidden="1">
       <c r="A51">
         <v>14926</v>
       </c>
@@ -2986,7 +2987,7 @@
         <v>5.28</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" hidden="1">
       <c r="A52">
         <v>14926</v>
       </c>
@@ -3015,7 +3016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" hidden="1">
       <c r="A53">
         <v>14926</v>
       </c>
@@ -3044,7 +3045,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" hidden="1">
       <c r="A54">
         <v>14937</v>
       </c>
@@ -3073,7 +3074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" hidden="1">
       <c r="A55">
         <v>14968</v>
       </c>
@@ -3102,7 +3103,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" hidden="1">
       <c r="A56">
         <v>14968</v>
       </c>
@@ -3131,7 +3132,7 @@
         <v>5.28</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" hidden="1">
       <c r="A57">
         <v>14968</v>
       </c>
@@ -3160,7 +3161,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" hidden="1">
       <c r="A58">
         <v>14968</v>
       </c>
@@ -3189,7 +3190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" hidden="1">
       <c r="A59">
         <v>14988</v>
       </c>
@@ -3218,7 +3219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" hidden="1">
       <c r="A60">
         <v>14988</v>
       </c>
@@ -3247,7 +3248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" hidden="1">
       <c r="A61">
         <v>14988</v>
       </c>
@@ -3276,7 +3277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" hidden="1">
       <c r="A62">
         <v>14988</v>
       </c>
@@ -3305,7 +3306,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" hidden="1">
       <c r="A63">
         <v>14988</v>
       </c>
@@ -3334,7 +3335,7 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" hidden="1">
       <c r="A64">
         <v>14988</v>
       </c>
@@ -3363,7 +3364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" hidden="1">
       <c r="A65">
         <v>14994</v>
       </c>
@@ -3392,7 +3393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" hidden="1">
       <c r="A66">
         <v>15026</v>
       </c>
@@ -3421,7 +3422,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" hidden="1">
       <c r="A67">
         <v>15026</v>
       </c>
@@ -3450,7 +3451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" hidden="1">
       <c r="A68">
         <v>15091</v>
       </c>
@@ -3479,7 +3480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" hidden="1">
       <c r="A69">
         <v>15164</v>
       </c>
@@ -3508,7 +3509,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" hidden="1">
       <c r="A70">
         <v>15164</v>
       </c>
@@ -4061,31 +4062,31 @@
     </row>
     <row r="89" spans="1:9" hidden="1">
       <c r="A89">
-        <v>14958</v>
+        <v>14974</v>
       </c>
       <c r="B89" t="s">
         <v>43</v>
       </c>
       <c r="C89" s="1">
-        <v>45237</v>
+        <v>45236</v>
       </c>
       <c r="D89" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
       <c r="F89">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G89">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H89">
-        <v>2.8333333333333299</v>
+        <v>5</v>
       </c>
       <c r="I89">
-        <v>2.83</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:9" hidden="1">
@@ -4099,7 +4100,7 @@
         <v>45237</v>
       </c>
       <c r="D90" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -4111,10 +4112,10 @@
         <v>15</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>2.8333333333333299</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="91" spans="1:9" hidden="1">
@@ -4128,22 +4129,22 @@
         <v>45237</v>
       </c>
       <c r="D91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E91">
         <v>1</v>
       </c>
       <c r="F91">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G91">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:9" hidden="1">
@@ -4157,22 +4158,22 @@
         <v>45237</v>
       </c>
       <c r="D92" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G92">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H92">
-        <v>2.6388888888888902</v>
+        <v>2</v>
       </c>
       <c r="I92">
-        <v>7.92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:9" hidden="1">
@@ -4186,51 +4187,51 @@
         <v>45237</v>
       </c>
       <c r="D93" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F93">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G93">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="H93">
-        <v>5</v>
+        <v>2.6388888888888902</v>
       </c>
       <c r="I93">
-        <v>10</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="94" spans="1:9" hidden="1">
       <c r="A94">
-        <v>14974</v>
+        <v>14958</v>
       </c>
       <c r="B94" t="s">
         <v>43</v>
       </c>
       <c r="C94" s="1">
-        <v>45236</v>
+        <v>45237</v>
       </c>
       <c r="D94" t="s">
         <v>17</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F94">
         <v>25</v>
       </c>
       <c r="G94">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H94">
         <v>5</v>
       </c>
       <c r="I94">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:9" hidden="1">
@@ -5714,187 +5715,187 @@
     </row>
     <row r="146" spans="1:9" hidden="1">
       <c r="A146">
-        <v>14920</v>
+        <v>14977</v>
       </c>
       <c r="B146" t="s">
         <v>66</v>
       </c>
       <c r="C146" s="1">
-        <v>45236</v>
+        <v>45234</v>
       </c>
       <c r="D146" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="E146">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F146">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G146">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H146">
-        <v>2.6388888888888902</v>
+        <v>1.25</v>
       </c>
       <c r="I146">
-        <v>10.56</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="147" spans="1:9" hidden="1">
       <c r="A147">
-        <v>14920</v>
+        <v>14977</v>
       </c>
       <c r="B147" t="s">
         <v>66</v>
       </c>
       <c r="C147" s="1">
-        <v>45236</v>
+        <v>45234</v>
       </c>
       <c r="D147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F147">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="G147">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I147">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:9" hidden="1">
       <c r="A148">
-        <v>14920</v>
+        <v>14977</v>
       </c>
       <c r="B148" t="s">
         <v>66</v>
       </c>
       <c r="C148" s="1">
-        <v>45236</v>
+        <v>45234</v>
       </c>
       <c r="D148" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="E148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F148">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G148">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>1.78571428571429</v>
       </c>
       <c r="I148">
-        <v>2</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="149" spans="1:9" hidden="1">
       <c r="A149">
-        <v>14920</v>
+        <v>14977</v>
       </c>
       <c r="B149" t="s">
         <v>66</v>
       </c>
       <c r="C149" s="1">
-        <v>45236</v>
+        <v>45234</v>
       </c>
       <c r="D149" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F149">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G149">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H149">
-        <v>1.78571428571429</v>
+        <v>2</v>
       </c>
       <c r="I149">
-        <v>1.79</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:9" hidden="1">
       <c r="A150">
-        <v>14920</v>
+        <v>14977</v>
       </c>
       <c r="B150" t="s">
         <v>66</v>
       </c>
       <c r="C150" s="1">
-        <v>45236</v>
+        <v>45234</v>
       </c>
       <c r="D150" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F150">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="G150">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="H150">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="I150">
-        <v>75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:9" hidden="1">
       <c r="A151">
-        <v>14920</v>
+        <v>14977</v>
       </c>
       <c r="B151" t="s">
         <v>66</v>
       </c>
       <c r="C151" s="1">
-        <v>45236</v>
+        <v>45234</v>
       </c>
       <c r="D151" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F151">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G151">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="H151">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I151">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:9" hidden="1">
       <c r="A152">
-        <v>14920</v>
+        <v>14977</v>
       </c>
       <c r="B152" t="s">
         <v>66</v>
       </c>
       <c r="C152" s="1">
-        <v>45236</v>
+        <v>45234</v>
       </c>
       <c r="D152" t="s">
         <v>69</v>
@@ -5903,274 +5904,274 @@
         <v>1</v>
       </c>
       <c r="F152">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G152">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>4.6666666666666696</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="153" spans="1:9" hidden="1">
       <c r="A153">
-        <v>14966</v>
+        <v>14920</v>
       </c>
       <c r="B153" t="s">
         <v>66</v>
       </c>
       <c r="C153" s="1">
-        <v>45237</v>
+        <v>45236</v>
       </c>
       <c r="D153" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F153">
         <v>5</v>
       </c>
       <c r="G153">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H153">
-        <v>1.78571428571429</v>
+        <v>2.6388888888888902</v>
       </c>
       <c r="I153">
-        <v>1.79</v>
+        <v>10.56</v>
       </c>
     </row>
     <row r="154" spans="1:9" hidden="1">
       <c r="A154">
-        <v>14966</v>
+        <v>14920</v>
       </c>
       <c r="B154" t="s">
         <v>66</v>
       </c>
       <c r="C154" s="1">
-        <v>45237</v>
+        <v>45236</v>
       </c>
       <c r="D154" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F154">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G154">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H154">
         <v>2</v>
       </c>
       <c r="I154">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:9" hidden="1">
       <c r="A155">
-        <v>14966</v>
+        <v>14920</v>
       </c>
       <c r="B155" t="s">
         <v>66</v>
       </c>
       <c r="C155" s="1">
-        <v>45237</v>
+        <v>45236</v>
       </c>
       <c r="D155" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E155">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F155">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G155">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H155">
-        <v>2.6388888888888902</v>
+        <v>1</v>
       </c>
       <c r="I155">
-        <v>13.19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:9" hidden="1">
       <c r="A156">
-        <v>14966</v>
+        <v>14920</v>
       </c>
       <c r="B156" t="s">
         <v>66</v>
       </c>
       <c r="C156" s="1">
-        <v>45237</v>
+        <v>45236</v>
       </c>
       <c r="D156" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F156">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G156">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="H156">
-        <v>5</v>
+        <v>1.78571428571429</v>
       </c>
       <c r="I156">
-        <v>15</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="157" spans="1:9" hidden="1">
       <c r="A157">
-        <v>14977</v>
+        <v>14920</v>
       </c>
       <c r="B157" t="s">
         <v>66</v>
       </c>
       <c r="C157" s="1">
-        <v>45234</v>
+        <v>45236</v>
       </c>
       <c r="D157" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F157">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="G157">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="H157">
-        <v>1.25</v>
+        <v>75</v>
       </c>
       <c r="I157">
-        <v>2.5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="158" spans="1:9" hidden="1">
       <c r="A158">
-        <v>14977</v>
+        <v>14920</v>
       </c>
       <c r="B158" t="s">
         <v>66</v>
       </c>
       <c r="C158" s="1">
-        <v>45234</v>
+        <v>45236</v>
       </c>
       <c r="D158" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F158">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="G158">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H158">
         <v>5</v>
       </c>
       <c r="I158">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" spans="1:9" hidden="1">
       <c r="A159">
-        <v>14977</v>
+        <v>14920</v>
       </c>
       <c r="B159" t="s">
         <v>66</v>
       </c>
       <c r="C159" s="1">
-        <v>45234</v>
+        <v>45236</v>
       </c>
       <c r="D159" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="E159">
         <v>1</v>
       </c>
       <c r="F159">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G159">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H159">
-        <v>1.78571428571429</v>
+        <v>2</v>
       </c>
       <c r="I159">
-        <v>1.79</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:9" hidden="1">
       <c r="A160">
-        <v>14977</v>
+        <v>14966</v>
       </c>
       <c r="B160" t="s">
         <v>66</v>
       </c>
       <c r="C160" s="1">
-        <v>45234</v>
+        <v>45237</v>
       </c>
       <c r="D160" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F160">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G160">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>1.78571428571429</v>
       </c>
       <c r="I160">
-        <v>4</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="161" spans="1:9" hidden="1">
       <c r="A161">
-        <v>14977</v>
+        <v>14966</v>
       </c>
       <c r="B161" t="s">
         <v>66</v>
       </c>
       <c r="C161" s="1">
-        <v>45234</v>
+        <v>45237</v>
       </c>
       <c r="D161" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F161">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G161">
         <v>10</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161">
         <v>2</v>
@@ -6178,60 +6179,60 @@
     </row>
     <row r="162" spans="1:9" hidden="1">
       <c r="A162">
-        <v>14977</v>
+        <v>14966</v>
       </c>
       <c r="B162" t="s">
         <v>66</v>
       </c>
       <c r="C162" s="1">
-        <v>45234</v>
+        <v>45237</v>
       </c>
       <c r="D162" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F162">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G162">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>2.6388888888888902</v>
       </c>
       <c r="I162">
-        <v>2</v>
+        <v>13.19</v>
       </c>
     </row>
     <row r="163" spans="1:9" hidden="1">
       <c r="A163">
-        <v>14977</v>
+        <v>14966</v>
       </c>
       <c r="B163" t="s">
         <v>66</v>
       </c>
       <c r="C163" s="1">
-        <v>45234</v>
+        <v>45237</v>
       </c>
       <c r="D163" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F163">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G163">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="H163">
-        <v>4.6666666666666696</v>
+        <v>5</v>
       </c>
       <c r="I163">
-        <v>4.67</v>
+        <v>15</v>
       </c>
     </row>
     <row r="164" spans="1:9" hidden="1">
@@ -6651,7 +6652,7 @@
         <v>45238</v>
       </c>
       <c r="D178" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -7202,7 +7203,7 @@
         <v>45234</v>
       </c>
       <c r="D197" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -8420,7 +8421,7 @@
         <v>45234</v>
       </c>
       <c r="D239" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E239">
         <v>2</v>
@@ -11195,7 +11196,7 @@
     </row>
     <row r="335" spans="1:9" hidden="1">
       <c r="A335">
-        <v>14874</v>
+        <v>14871</v>
       </c>
       <c r="B335" t="s">
         <v>125</v>
@@ -11204,27 +11205,27 @@
         <v>45234</v>
       </c>
       <c r="D335" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="E335">
         <v>1</v>
       </c>
       <c r="F335">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G335">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H335">
-        <v>1.25</v>
+        <v>1.3333333333333299</v>
       </c>
       <c r="I335">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="336" spans="1:9" hidden="1">
       <c r="A336">
-        <v>14874</v>
+        <v>14871</v>
       </c>
       <c r="B336" t="s">
         <v>125</v>
@@ -11233,27 +11234,27 @@
         <v>45234</v>
       </c>
       <c r="D336" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E336">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F336">
         <v>5</v>
       </c>
       <c r="G336">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H336">
-        <v>1.78571428571429</v>
+        <v>2.6388888888888902</v>
       </c>
       <c r="I336">
-        <v>1.79</v>
+        <v>10.56</v>
       </c>
     </row>
     <row r="337" spans="1:9" hidden="1">
       <c r="A337">
-        <v>14874</v>
+        <v>14871</v>
       </c>
       <c r="B337" t="s">
         <v>125</v>
@@ -11262,27 +11263,27 @@
         <v>45234</v>
       </c>
       <c r="D337" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="E337">
         <v>1</v>
       </c>
       <c r="F337">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G337">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H337">
-        <v>2.3333333333333299</v>
+        <v>5</v>
       </c>
       <c r="I337">
-        <v>2.33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="338" spans="1:9" hidden="1">
       <c r="A338">
-        <v>14874</v>
+        <v>14871</v>
       </c>
       <c r="B338" t="s">
         <v>125</v>
@@ -11311,7 +11312,7 @@
     </row>
     <row r="339" spans="1:9" hidden="1">
       <c r="A339">
-        <v>14874</v>
+        <v>14900</v>
       </c>
       <c r="B339" t="s">
         <v>125</v>
@@ -11320,36 +11321,36 @@
         <v>45234</v>
       </c>
       <c r="D339" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E339">
         <v>2</v>
       </c>
       <c r="F339">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="G339">
+        <v>90</v>
+      </c>
+      <c r="H339">
+        <v>5</v>
+      </c>
+      <c r="I339">
         <v>10</v>
-      </c>
-      <c r="H339">
-        <v>2.6388888888888902</v>
-      </c>
-      <c r="I339">
-        <v>5.28</v>
       </c>
     </row>
     <row r="340" spans="1:9" hidden="1">
       <c r="A340">
-        <v>15022</v>
+        <v>14900</v>
       </c>
       <c r="B340" t="s">
         <v>125</v>
       </c>
       <c r="C340" s="1">
-        <v>45238</v>
+        <v>45234</v>
       </c>
       <c r="D340" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="E340">
         <v>1</v>
@@ -11361,24 +11362,24 @@
         <v>16</v>
       </c>
       <c r="H340">
-        <v>2.3333333333333299</v>
+        <v>4</v>
       </c>
       <c r="I340">
-        <v>2.33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="341" spans="1:9" hidden="1">
       <c r="A341">
-        <v>15022</v>
+        <v>14900</v>
       </c>
       <c r="B341" t="s">
         <v>125</v>
       </c>
       <c r="C341" s="1">
-        <v>45238</v>
+        <v>45234</v>
       </c>
       <c r="D341" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="E341">
         <v>1</v>
@@ -11390,746 +11391,746 @@
         <v>15</v>
       </c>
       <c r="H341">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="I341">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:9" hidden="1">
       <c r="A342">
-        <v>15022</v>
+        <v>14900</v>
       </c>
       <c r="B342" t="s">
         <v>125</v>
       </c>
       <c r="C342" s="1">
-        <v>45238</v>
+        <v>45234</v>
       </c>
       <c r="D342" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E342">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F342">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G342">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H342">
-        <v>2.6388888888888902</v>
+        <v>2</v>
       </c>
       <c r="I342">
-        <v>5.28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:9" hidden="1">
       <c r="A343">
-        <v>15022</v>
+        <v>14900</v>
       </c>
       <c r="B343" t="s">
         <v>125</v>
       </c>
       <c r="C343" s="1">
-        <v>45238</v>
+        <v>45234</v>
       </c>
       <c r="D343" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E343">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F343">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="G343">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H343">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="I343">
-        <v>10</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="344" spans="1:9" hidden="1">
       <c r="A344">
-        <v>15084</v>
+        <v>14917</v>
       </c>
       <c r="B344" t="s">
         <v>125</v>
       </c>
       <c r="C344" s="1">
-        <v>45239</v>
+        <v>45236</v>
       </c>
       <c r="D344" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="E344">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F344">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G344">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H344">
-        <v>1.25</v>
+        <v>2.6388888888888902</v>
       </c>
       <c r="I344">
-        <v>1.25</v>
+        <v>10.56</v>
       </c>
     </row>
     <row r="345" spans="1:9" hidden="1">
       <c r="A345">
-        <v>15084</v>
+        <v>14917</v>
       </c>
       <c r="B345" t="s">
         <v>125</v>
       </c>
       <c r="C345" s="1">
-        <v>45239</v>
+        <v>45236</v>
       </c>
       <c r="D345" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="E345">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F345">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G345">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H345">
-        <v>2.6388888888888902</v>
+        <v>1.5833333333333299</v>
       </c>
       <c r="I345">
-        <v>5.28</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="346" spans="1:9" hidden="1">
       <c r="A346">
-        <v>15084</v>
+        <v>14917</v>
       </c>
       <c r="B346" t="s">
         <v>125</v>
       </c>
       <c r="C346" s="1">
-        <v>45239</v>
+        <v>45236</v>
       </c>
       <c r="D346" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="E346">
         <v>1</v>
       </c>
       <c r="F346">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G346">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H346">
-        <v>1.6</v>
+        <v>1.5833333333333299</v>
       </c>
       <c r="I346">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="347" spans="1:9" hidden="1">
       <c r="A347">
-        <v>14871</v>
+        <v>14917</v>
       </c>
       <c r="B347" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C347" s="1">
-        <v>45234</v>
+        <v>45236</v>
       </c>
       <c r="D347" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="E347">
         <v>1</v>
       </c>
       <c r="F347">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G347">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H347">
-        <v>1.3333333333333299</v>
+        <v>3</v>
       </c>
       <c r="I347">
-        <v>1.33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="348" spans="1:9" hidden="1">
       <c r="A348">
-        <v>14871</v>
+        <v>14917</v>
       </c>
       <c r="B348" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C348" s="1">
-        <v>45234</v>
+        <v>45236</v>
       </c>
       <c r="D348" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E348">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F348">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G348">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H348">
-        <v>2.6388888888888902</v>
+        <v>5</v>
       </c>
       <c r="I348">
-        <v>10.56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="349" spans="1:9" hidden="1">
       <c r="A349">
-        <v>14871</v>
+        <v>14951</v>
       </c>
       <c r="B349" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C349" s="1">
-        <v>45234</v>
+        <v>45236</v>
       </c>
       <c r="D349" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="E349">
         <v>1</v>
       </c>
       <c r="F349">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G349">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="H349">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I349">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:9" hidden="1">
       <c r="A350">
-        <v>14871</v>
+        <v>14951</v>
       </c>
       <c r="B350" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C350" s="1">
-        <v>45234</v>
+        <v>45236</v>
       </c>
       <c r="D350" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E350">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F350">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G350">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H350">
         <v>5</v>
       </c>
       <c r="I350">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="351" spans="1:9" hidden="1">
       <c r="A351">
-        <v>14900</v>
+        <v>14951</v>
       </c>
       <c r="B351" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C351" s="1">
-        <v>45234</v>
+        <v>45236</v>
       </c>
       <c r="D351" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E351">
         <v>2</v>
       </c>
       <c r="F351">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G351">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="H351">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="I351">
-        <v>10</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="352" spans="1:9" hidden="1">
       <c r="A352">
-        <v>14900</v>
+        <v>14951</v>
       </c>
       <c r="B352" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C352" s="1">
-        <v>45234</v>
+        <v>45236</v>
       </c>
       <c r="D352" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="E352">
         <v>1</v>
       </c>
       <c r="F352">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G352">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H352">
-        <v>4</v>
+        <v>6.1666666666666696</v>
       </c>
       <c r="I352">
-        <v>4</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="353" spans="1:9" hidden="1">
       <c r="A353">
-        <v>14900</v>
+        <v>14956</v>
       </c>
       <c r="B353" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C353" s="1">
-        <v>45234</v>
+        <v>45237</v>
       </c>
       <c r="D353" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="E353">
         <v>1</v>
       </c>
       <c r="F353">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G353">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>1.5833333333333299</v>
       </c>
       <c r="I353">
-        <v>1</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="354" spans="1:9" hidden="1">
       <c r="A354">
-        <v>14900</v>
+        <v>14956</v>
       </c>
       <c r="B354" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C354" s="1">
-        <v>45234</v>
+        <v>45237</v>
       </c>
       <c r="D354" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E354">
         <v>1</v>
       </c>
       <c r="F354">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G354">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>1.3333333333333299</v>
       </c>
       <c r="I354">
-        <v>2</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="355" spans="1:9" hidden="1">
       <c r="A355">
-        <v>14900</v>
+        <v>14956</v>
       </c>
       <c r="B355" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C355" s="1">
-        <v>45234</v>
+        <v>45237</v>
       </c>
       <c r="D355" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E355">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F355">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="G355">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H355">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="I355">
-        <v>13.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="356" spans="1:9" hidden="1">
       <c r="A356">
-        <v>14917</v>
+        <v>14956</v>
       </c>
       <c r="B356" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C356" s="1">
-        <v>45236</v>
+        <v>45237</v>
       </c>
       <c r="D356" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="E356">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F356">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G356">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H356">
-        <v>2.6388888888888902</v>
+        <v>2</v>
       </c>
       <c r="I356">
-        <v>10.56</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:9" hidden="1">
       <c r="A357">
-        <v>14917</v>
+        <v>14956</v>
       </c>
       <c r="B357" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C357" s="1">
-        <v>45236</v>
+        <v>45237</v>
       </c>
       <c r="D357" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="E357">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F357">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G357">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H357">
-        <v>1.5833333333333299</v>
+        <v>2.6388888888888902</v>
       </c>
       <c r="I357">
-        <v>1.58</v>
+        <v>10.56</v>
       </c>
     </row>
     <row r="358" spans="1:9" hidden="1">
       <c r="A358">
-        <v>14917</v>
+        <v>14956</v>
       </c>
       <c r="B358" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C358" s="1">
-        <v>45236</v>
+        <v>45237</v>
       </c>
       <c r="D358" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="E358">
         <v>1</v>
       </c>
       <c r="F358">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G358">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H358">
-        <v>1.5833333333333299</v>
+        <v>5</v>
       </c>
       <c r="I358">
-        <v>1.58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="359" spans="1:9" hidden="1">
       <c r="A359">
-        <v>14917</v>
+        <v>14992</v>
       </c>
       <c r="B359" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C359" s="1">
-        <v>45236</v>
+        <v>45237</v>
       </c>
       <c r="D359" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="E359">
         <v>1</v>
       </c>
       <c r="F359">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G359">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H359">
-        <v>3</v>
+        <v>1.78571428571429</v>
       </c>
       <c r="I359">
-        <v>3</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="360" spans="1:9" hidden="1">
       <c r="A360">
-        <v>14917</v>
+        <v>14992</v>
       </c>
       <c r="B360" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C360" s="1">
-        <v>45236</v>
+        <v>45237</v>
       </c>
       <c r="D360" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E360">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F360">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G360">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H360">
         <v>5</v>
       </c>
       <c r="I360">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="361" spans="1:9" hidden="1">
       <c r="A361">
-        <v>14951</v>
+        <v>14992</v>
       </c>
       <c r="B361" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C361" s="1">
-        <v>45236</v>
+        <v>45237</v>
       </c>
       <c r="D361" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="E361">
         <v>1</v>
       </c>
       <c r="F361">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G361">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="I361">
-        <v>2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="362" spans="1:9" hidden="1">
       <c r="A362">
-        <v>14951</v>
+        <v>14992</v>
       </c>
       <c r="B362" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C362" s="1">
-        <v>45236</v>
+        <v>45237</v>
       </c>
       <c r="D362" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E362">
         <v>1</v>
       </c>
       <c r="F362">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="G362">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="H362">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I362">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:9" hidden="1">
       <c r="A363">
-        <v>14951</v>
+        <v>14992</v>
       </c>
       <c r="B363" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C363" s="1">
-        <v>45236</v>
+        <v>45237</v>
       </c>
       <c r="D363" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="E363">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F363">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G363">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="H363">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="I363">
-        <v>3.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:9" hidden="1">
       <c r="A364">
-        <v>14951</v>
+        <v>15005</v>
       </c>
       <c r="B364" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C364" s="1">
-        <v>45236</v>
+        <v>45238</v>
       </c>
       <c r="D364" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="E364">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F364">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="G364">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H364">
-        <v>6.1666666666666696</v>
+        <v>2.6388888888888902</v>
       </c>
       <c r="I364">
-        <v>6.17</v>
+        <v>10.56</v>
       </c>
     </row>
     <row r="365" spans="1:9" hidden="1">
       <c r="A365">
-        <v>14956</v>
+        <v>15005</v>
       </c>
       <c r="B365" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C365" s="1">
-        <v>45237</v>
+        <v>45238</v>
       </c>
       <c r="D365" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="E365">
         <v>1</v>
       </c>
       <c r="F365">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G365">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H365">
-        <v>1.5833333333333299</v>
+        <v>1.8333333333333299</v>
       </c>
       <c r="I365">
-        <v>1.58</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="366" spans="1:9" hidden="1">
       <c r="A366">
-        <v>14956</v>
+        <v>15005</v>
       </c>
       <c r="B366" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C366" s="1">
-        <v>45237</v>
+        <v>45238</v>
       </c>
       <c r="D366" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="E366">
         <v>1</v>
       </c>
       <c r="F366">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G366">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H366">
-        <v>1.3333333333333299</v>
+        <v>5</v>
       </c>
       <c r="I366">
-        <v>1.33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="367" spans="1:9" hidden="1">
       <c r="A367">
-        <v>14956</v>
+        <v>15006</v>
       </c>
       <c r="B367" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C367" s="1">
-        <v>45237</v>
+        <v>45238</v>
       </c>
       <c r="D367" t="s">
         <v>17</v>
@@ -12152,228 +12153,228 @@
     </row>
     <row r="368" spans="1:9" hidden="1">
       <c r="A368">
-        <v>14956</v>
+        <v>15062</v>
       </c>
       <c r="B368" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C368" s="1">
-        <v>45237</v>
+        <v>45239</v>
       </c>
       <c r="D368" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="E368">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F368">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G368">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>2.6388888888888902</v>
       </c>
       <c r="I368">
-        <v>2</v>
+        <v>10.56</v>
       </c>
     </row>
     <row r="369" spans="1:9" hidden="1">
       <c r="A369">
-        <v>14956</v>
+        <v>15062</v>
       </c>
       <c r="B369" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C369" s="1">
-        <v>45237</v>
+        <v>45239</v>
       </c>
       <c r="D369" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="E369">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F369">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G369">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H369">
-        <v>2.6388888888888902</v>
+        <v>1.8333333333333299</v>
       </c>
       <c r="I369">
-        <v>10.56</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="370" spans="1:9" hidden="1">
       <c r="A370">
-        <v>14956</v>
+        <v>15062</v>
       </c>
       <c r="B370" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C370" s="1">
-        <v>45237</v>
+        <v>45239</v>
       </c>
       <c r="D370" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="E370">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F370">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G370">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H370">
         <v>5</v>
       </c>
       <c r="I370">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="371" spans="1:9" hidden="1">
       <c r="A371">
-        <v>14992</v>
+        <v>15062</v>
       </c>
       <c r="B371" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C371" s="1">
-        <v>45237</v>
+        <v>45239</v>
       </c>
       <c r="D371" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="E371">
         <v>1</v>
       </c>
       <c r="F371">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G371">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H371">
-        <v>1.78571428571429</v>
+        <v>5</v>
       </c>
       <c r="I371">
-        <v>1.79</v>
+        <v>5</v>
       </c>
     </row>
     <row r="372" spans="1:9" hidden="1">
       <c r="A372">
-        <v>14992</v>
+        <v>15104</v>
       </c>
       <c r="B372" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C372" s="1">
-        <v>45237</v>
+        <v>45239</v>
       </c>
       <c r="D372" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E372">
         <v>1</v>
       </c>
       <c r="F372">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G372">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="H372">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I372">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="373" spans="1:9" hidden="1">
       <c r="A373">
-        <v>14992</v>
+        <v>15104</v>
       </c>
       <c r="B373" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C373" s="1">
-        <v>45237</v>
+        <v>45239</v>
       </c>
       <c r="D373" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="E373">
         <v>1</v>
       </c>
       <c r="F373">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="G373">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="H373">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="I373">
-        <v>1.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="374" spans="1:9" hidden="1">
       <c r="A374">
-        <v>14992</v>
+        <v>15104</v>
       </c>
       <c r="B374" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C374" s="1">
-        <v>45237</v>
+        <v>45239</v>
       </c>
       <c r="D374" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E374">
         <v>1</v>
       </c>
       <c r="F374">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G374">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I374">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="375" spans="1:9" hidden="1">
       <c r="A375">
-        <v>14992</v>
+        <v>15104</v>
       </c>
       <c r="B375" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C375" s="1">
-        <v>45237</v>
+        <v>45239</v>
       </c>
       <c r="D375" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E375">
         <v>1</v>
       </c>
       <c r="F375">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G375">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H375">
         <v>1</v>
@@ -12384,112 +12385,112 @@
     </row>
     <row r="376" spans="1:9" hidden="1">
       <c r="A376">
-        <v>15005</v>
+        <v>15104</v>
       </c>
       <c r="B376" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C376" s="1">
-        <v>45238</v>
+        <v>45239</v>
       </c>
       <c r="D376" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E376">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F376">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G376">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H376">
-        <v>2.6388888888888902</v>
+        <v>2</v>
       </c>
       <c r="I376">
-        <v>10.56</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:9" hidden="1">
       <c r="A377">
-        <v>15005</v>
+        <v>15104</v>
       </c>
       <c r="B377" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C377" s="1">
-        <v>45238</v>
+        <v>45239</v>
       </c>
       <c r="D377" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="E377">
         <v>1</v>
       </c>
       <c r="F377">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G377">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H377">
-        <v>1.8333333333333299</v>
+        <v>1.5</v>
       </c>
       <c r="I377">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="378" spans="1:9" hidden="1">
       <c r="A378">
-        <v>15005</v>
+        <v>15116</v>
       </c>
       <c r="B378" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C378" s="1">
-        <v>45238</v>
+        <v>45239</v>
       </c>
       <c r="D378" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E378">
         <v>1</v>
       </c>
       <c r="F378">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G378">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H378">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I378">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="379" spans="1:9" hidden="1">
       <c r="A379">
-        <v>15006</v>
+        <v>15116</v>
       </c>
       <c r="B379" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C379" s="1">
-        <v>45238</v>
+        <v>45239</v>
       </c>
       <c r="D379" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E379">
         <v>1</v>
       </c>
       <c r="F379">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G379">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="H379">
         <v>5</v>
@@ -12500,170 +12501,170 @@
     </row>
     <row r="380" spans="1:9" hidden="1">
       <c r="A380">
-        <v>15062</v>
+        <v>15141</v>
       </c>
       <c r="B380" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C380" s="1">
-        <v>45239</v>
+        <v>45240</v>
       </c>
       <c r="D380" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="E380">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F380">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G380">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H380">
-        <v>2.6388888888888902</v>
+        <v>2.96</v>
       </c>
       <c r="I380">
-        <v>10.56</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="381" spans="1:9" hidden="1">
       <c r="A381">
-        <v>15062</v>
+        <v>15141</v>
       </c>
       <c r="B381" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C381" s="1">
-        <v>45239</v>
+        <v>45240</v>
       </c>
       <c r="D381" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E381">
         <v>1</v>
       </c>
       <c r="F381">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G381">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H381">
-        <v>1.8333333333333299</v>
+        <v>2</v>
       </c>
       <c r="I381">
-        <v>1.83</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:9" hidden="1">
       <c r="A382">
-        <v>15062</v>
+        <v>15141</v>
       </c>
       <c r="B382" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C382" s="1">
-        <v>45239</v>
+        <v>45240</v>
       </c>
       <c r="D382" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E382">
         <v>2</v>
       </c>
       <c r="F382">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G382">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H382">
-        <v>5</v>
+        <v>2.6388888888888902</v>
       </c>
       <c r="I382">
-        <v>10</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="383" spans="1:9" hidden="1">
       <c r="A383">
-        <v>15062</v>
+        <v>15141</v>
       </c>
       <c r="B383" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C383" s="1">
-        <v>45239</v>
+        <v>45240</v>
       </c>
       <c r="D383" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="E383">
         <v>1</v>
       </c>
       <c r="F383">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G383">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H383">
-        <v>5</v>
+        <v>1.8333333333333299</v>
       </c>
       <c r="I383">
-        <v>5</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="384" spans="1:9" hidden="1">
       <c r="A384">
-        <v>15104</v>
+        <v>15141</v>
       </c>
       <c r="B384" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C384" s="1">
-        <v>45239</v>
+        <v>45240</v>
       </c>
       <c r="D384" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="E384">
         <v>1</v>
       </c>
       <c r="F384">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G384">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H384">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="I384">
-        <v>3</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="385" spans="1:9" hidden="1">
       <c r="A385">
-        <v>15104</v>
+        <v>15171</v>
       </c>
       <c r="B385" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C385" s="1">
-        <v>45239</v>
+        <v>45240</v>
       </c>
       <c r="D385" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="E385">
         <v>1</v>
       </c>
       <c r="F385">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G385">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H385">
         <v>5</v>
@@ -12674,277 +12675,277 @@
     </row>
     <row r="386" spans="1:9" hidden="1">
       <c r="A386">
-        <v>15104</v>
+        <v>14874</v>
       </c>
       <c r="B386" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C386" s="1">
-        <v>45239</v>
+        <v>45234</v>
       </c>
       <c r="D386" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="E386">
         <v>1</v>
       </c>
       <c r="F386">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G386">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H386">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="I386">
-        <v>5</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="387" spans="1:9" hidden="1">
       <c r="A387">
-        <v>15104</v>
+        <v>14874</v>
       </c>
       <c r="B387" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C387" s="1">
-        <v>45239</v>
+        <v>45234</v>
       </c>
       <c r="D387" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E387">
         <v>1</v>
       </c>
       <c r="F387">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G387">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>1.78571428571429</v>
       </c>
       <c r="I387">
-        <v>1</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="388" spans="1:9" hidden="1">
       <c r="A388">
-        <v>15104</v>
+        <v>14874</v>
       </c>
       <c r="B388" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C388" s="1">
-        <v>45239</v>
+        <v>45234</v>
       </c>
       <c r="D388" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="E388">
         <v>1</v>
       </c>
       <c r="F388">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G388">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>2.3333333333333299</v>
       </c>
       <c r="I388">
-        <v>2</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="389" spans="1:9" hidden="1">
       <c r="A389">
-        <v>15104</v>
+        <v>14874</v>
       </c>
       <c r="B389" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C389" s="1">
-        <v>45239</v>
+        <v>45234</v>
       </c>
       <c r="D389" t="s">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="E389">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F389">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G389">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="H389">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="I389">
-        <v>1.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="390" spans="1:9" hidden="1">
       <c r="A390">
-        <v>15116</v>
+        <v>14874</v>
       </c>
       <c r="B390" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C390" s="1">
-        <v>45239</v>
+        <v>45234</v>
       </c>
       <c r="D390" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="E390">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F390">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G390">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H390">
-        <v>4</v>
+        <v>2.6388888888888902</v>
       </c>
       <c r="I390">
-        <v>4</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="391" spans="1:9" hidden="1">
       <c r="A391">
-        <v>15116</v>
+        <v>15022</v>
       </c>
       <c r="B391" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C391" s="1">
-        <v>45239</v>
+        <v>45238</v>
       </c>
       <c r="D391" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="E391">
         <v>1</v>
       </c>
       <c r="F391">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G391">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="H391">
-        <v>5</v>
+        <v>2.3333333333333299</v>
       </c>
       <c r="I391">
-        <v>5</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="392" spans="1:9" hidden="1">
       <c r="A392">
-        <v>15141</v>
+        <v>15022</v>
       </c>
       <c r="B392" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C392" s="1">
-        <v>45240</v>
+        <v>45238</v>
       </c>
       <c r="D392" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E392">
         <v>1</v>
       </c>
       <c r="F392">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G392">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H392">
-        <v>2.96</v>
+        <v>1.25</v>
       </c>
       <c r="I392">
-        <v>2.96</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="393" spans="1:9" hidden="1">
       <c r="A393">
-        <v>15141</v>
+        <v>15022</v>
       </c>
       <c r="B393" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C393" s="1">
-        <v>45240</v>
+        <v>45238</v>
       </c>
       <c r="D393" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E393">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F393">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G393">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>2.6388888888888902</v>
       </c>
       <c r="I393">
-        <v>2</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="394" spans="1:9" hidden="1">
       <c r="A394">
-        <v>15141</v>
+        <v>15022</v>
       </c>
       <c r="B394" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C394" s="1">
-        <v>45240</v>
+        <v>45238</v>
       </c>
       <c r="D394" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E394">
         <v>2</v>
       </c>
       <c r="F394">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G394">
+        <v>50</v>
+      </c>
+      <c r="H394">
+        <v>5</v>
+      </c>
+      <c r="I394">
         <v>10</v>
-      </c>
-      <c r="H394">
-        <v>2.6388888888888902</v>
-      </c>
-      <c r="I394">
-        <v>5.28</v>
       </c>
     </row>
     <row r="395" spans="1:9" hidden="1">
       <c r="A395">
-        <v>15141</v>
+        <v>15084</v>
       </c>
       <c r="B395" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C395" s="1">
-        <v>45240</v>
+        <v>45239</v>
       </c>
       <c r="D395" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E395">
         <v>1</v>
@@ -12956,68 +12957,68 @@
         <v>15</v>
       </c>
       <c r="H395">
-        <v>1.8333333333333299</v>
+        <v>1.25</v>
       </c>
       <c r="I395">
-        <v>1.83</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="396" spans="1:9" hidden="1">
       <c r="A396">
-        <v>15141</v>
+        <v>15084</v>
       </c>
       <c r="B396" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C396" s="1">
-        <v>45240</v>
+        <v>45239</v>
       </c>
       <c r="D396" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="E396">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F396">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G396">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H396">
-        <v>1.25</v>
+        <v>2.6388888888888902</v>
       </c>
       <c r="I396">
-        <v>1.25</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="397" spans="1:9" hidden="1">
       <c r="A397">
-        <v>15171</v>
+        <v>15084</v>
       </c>
       <c r="B397" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C397" s="1">
-        <v>45240</v>
+        <v>45239</v>
       </c>
       <c r="D397" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="E397">
         <v>1</v>
       </c>
       <c r="F397">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G397">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="H397">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="I397">
-        <v>5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="398" spans="1:9" hidden="1">
@@ -14153,25 +14154,25 @@
     </row>
     <row r="437" spans="1:9" hidden="1">
       <c r="A437">
-        <v>14892</v>
+        <v>15134</v>
       </c>
       <c r="B437" t="s">
         <v>141</v>
       </c>
       <c r="C437" s="1">
-        <v>45234</v>
+        <v>45239</v>
       </c>
       <c r="D437" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="E437">
         <v>1</v>
       </c>
       <c r="F437">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G437">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H437">
         <v>1</v>
@@ -14182,126 +14183,126 @@
     </row>
     <row r="438" spans="1:9" hidden="1">
       <c r="A438">
-        <v>14970</v>
+        <v>15134</v>
       </c>
       <c r="B438" t="s">
         <v>141</v>
       </c>
       <c r="C438" s="1">
-        <v>45237</v>
+        <v>45239</v>
       </c>
       <c r="D438" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E438">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F438">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G438">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="H438">
-        <v>2.8333333333333299</v>
+        <v>2</v>
       </c>
       <c r="I438">
-        <v>5.67</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:9" hidden="1">
       <c r="A439">
-        <v>15107</v>
+        <v>14892</v>
       </c>
       <c r="B439" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C439" s="1">
-        <v>45239</v>
+        <v>45234</v>
       </c>
       <c r="D439" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E439">
         <v>1</v>
       </c>
       <c r="F439">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G439">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H439">
-        <v>1.2666666666666699</v>
+        <v>1</v>
       </c>
       <c r="I439">
-        <v>1.27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:9" hidden="1">
       <c r="A440">
-        <v>15118</v>
+        <v>14970</v>
       </c>
       <c r="B440" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C440" s="1">
-        <v>45239</v>
+        <v>45237</v>
       </c>
       <c r="D440" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E440">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F440">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G440">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="H440">
-        <v>0.91666666666666696</v>
+        <v>2.8333333333333299</v>
       </c>
       <c r="I440">
-        <v>0.92</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="441" spans="1:9" hidden="1">
       <c r="A441">
-        <v>15134</v>
+        <v>15107</v>
       </c>
       <c r="B441" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C441" s="1">
         <v>45239</v>
       </c>
       <c r="D441" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="E441">
         <v>1</v>
       </c>
       <c r="F441">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G441">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H441">
-        <v>1</v>
+        <v>1.2666666666666699</v>
       </c>
       <c r="I441">
-        <v>1</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="442" spans="1:9" hidden="1">
       <c r="A442">
-        <v>15134</v>
+        <v>15118</v>
       </c>
       <c r="B442" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C442" s="1">
         <v>45239</v>
@@ -14313,19 +14314,19 @@
         <v>1</v>
       </c>
       <c r="F442">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G442">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0.91666666666666696</v>
       </c>
       <c r="I442">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="443" spans="1:9" hidden="1">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9">
       <c r="A443">
         <v>14865</v>
       </c>
@@ -14354,7 +14355,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="444" spans="1:9" hidden="1">
+    <row r="444" spans="1:9">
       <c r="A444">
         <v>14865</v>
       </c>
@@ -14528,7 +14529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:9" hidden="1">
+    <row r="450" spans="1:9">
       <c r="A450">
         <v>14913</v>
       </c>
@@ -14586,7 +14587,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="452" spans="1:9" hidden="1">
+    <row r="452" spans="1:9">
       <c r="A452">
         <v>14913</v>
       </c>
@@ -14615,7 +14616,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="453" spans="1:9" hidden="1">
+    <row r="453" spans="1:9">
       <c r="A453">
         <v>14913</v>
       </c>
@@ -14702,62 +14703,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:9" hidden="1">
+    <row r="456" spans="1:9">
       <c r="A456">
-        <v>14950</v>
+        <v>14976</v>
       </c>
       <c r="B456" t="s">
         <v>146</v>
       </c>
       <c r="C456" s="1">
-        <v>45236</v>
+        <v>45234</v>
       </c>
       <c r="D456" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E456">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F456">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="G456">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="H456">
-        <v>13.3333333333333</v>
+        <v>1.0416666666666701</v>
       </c>
       <c r="I456">
-        <v>13.33</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="457" spans="1:9" hidden="1">
       <c r="A457">
-        <v>14950</v>
+        <v>14976</v>
       </c>
       <c r="B457" t="s">
         <v>146</v>
       </c>
       <c r="C457" s="1">
-        <v>45236</v>
+        <v>45234</v>
       </c>
       <c r="D457" t="s">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="E457">
         <v>1</v>
       </c>
       <c r="F457">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="G457">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="H457">
-        <v>7.1666666666666696</v>
+        <v>1.78571428571429</v>
       </c>
       <c r="I457">
-        <v>7.17</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="458" spans="1:9" hidden="1">
@@ -14771,22 +14772,22 @@
         <v>45236</v>
       </c>
       <c r="D458" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E458">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F458">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G458">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H458">
-        <v>1.3</v>
+        <v>13.3333333333333</v>
       </c>
       <c r="I458">
-        <v>2.6</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="459" spans="1:9" hidden="1">
@@ -14800,25 +14801,25 @@
         <v>45236</v>
       </c>
       <c r="D459" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="E459">
         <v>1</v>
       </c>
       <c r="F459">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G459">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H459">
-        <v>2.6</v>
+        <v>7.1666666666666696</v>
       </c>
       <c r="I459">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="460" spans="1:9" hidden="1">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9">
       <c r="A460">
         <v>14950</v>
       </c>
@@ -14829,22 +14830,22 @@
         <v>45236</v>
       </c>
       <c r="D460" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="E460">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F460">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G460">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H460">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="I460">
-        <v>3</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="461" spans="1:9" hidden="1">
@@ -14858,80 +14859,80 @@
         <v>45236</v>
       </c>
       <c r="D461" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E461">
         <v>1</v>
       </c>
       <c r="F461">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="G461">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H461">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="I461">
-        <v>5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="462" spans="1:9" hidden="1">
       <c r="A462">
-        <v>14967</v>
+        <v>14950</v>
       </c>
       <c r="B462" t="s">
         <v>146</v>
       </c>
       <c r="C462" s="1">
-        <v>45237</v>
+        <v>45236</v>
       </c>
       <c r="D462" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E462">
         <v>1</v>
       </c>
       <c r="F462">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G462">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I462">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="463" spans="1:9" hidden="1">
       <c r="A463">
-        <v>14967</v>
+        <v>14950</v>
       </c>
       <c r="B463" t="s">
         <v>146</v>
       </c>
       <c r="C463" s="1">
-        <v>45237</v>
+        <v>45236</v>
       </c>
       <c r="D463" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E463">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F463">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="G463">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="H463">
-        <v>1.78571428571429</v>
+        <v>5</v>
       </c>
       <c r="I463">
-        <v>3.57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="464" spans="1:9" hidden="1">
@@ -14945,25 +14946,25 @@
         <v>45237</v>
       </c>
       <c r="D464" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E464">
         <v>1</v>
       </c>
       <c r="F464">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G464">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H464">
-        <v>1.0416666666666701</v>
+        <v>2</v>
       </c>
       <c r="I464">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="465" spans="1:9" hidden="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9">
       <c r="A465">
         <v>14967</v>
       </c>
@@ -14974,22 +14975,22 @@
         <v>45237</v>
       </c>
       <c r="D465" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E465">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F465">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G465">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H465">
-        <v>5</v>
+        <v>1.78571428571429</v>
       </c>
       <c r="I465">
-        <v>5</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="466" spans="1:9" hidden="1">
@@ -15003,80 +15004,80 @@
         <v>45237</v>
       </c>
       <c r="D466" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="E466">
         <v>1</v>
       </c>
       <c r="F466">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G466">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H466">
-        <v>2.8333333333333299</v>
+        <v>1.0416666666666701</v>
       </c>
       <c r="I466">
-        <v>2.83</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="467" spans="1:9" hidden="1">
       <c r="A467">
-        <v>14976</v>
+        <v>14967</v>
       </c>
       <c r="B467" t="s">
         <v>146</v>
       </c>
       <c r="C467" s="1">
-        <v>45234</v>
+        <v>45237</v>
       </c>
       <c r="D467" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E467">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F467">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G467">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H467">
-        <v>1.0416666666666701</v>
+        <v>5</v>
       </c>
       <c r="I467">
-        <v>2.08</v>
+        <v>5</v>
       </c>
     </row>
     <row r="468" spans="1:9" hidden="1">
       <c r="A468">
-        <v>14976</v>
+        <v>14967</v>
       </c>
       <c r="B468" t="s">
         <v>146</v>
       </c>
       <c r="C468" s="1">
-        <v>45234</v>
+        <v>45237</v>
       </c>
       <c r="D468" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="E468">
         <v>1</v>
       </c>
       <c r="F468">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G468">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H468">
-        <v>1.78571428571429</v>
+        <v>2.8333333333333299</v>
       </c>
       <c r="I468">
-        <v>1.79</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="469" spans="1:9" hidden="1">
@@ -15206,7 +15207,7 @@
         <v>45237</v>
       </c>
       <c r="D473" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E473">
         <v>1</v>
@@ -15311,7 +15312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="477" spans="1:9" hidden="1">
+    <row r="477" spans="1:9">
       <c r="A477">
         <v>15013</v>
       </c>
@@ -15340,7 +15341,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="478" spans="1:9" hidden="1">
+    <row r="478" spans="1:9">
       <c r="A478">
         <v>15013</v>
       </c>
@@ -15427,7 +15428,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="481" spans="1:9" hidden="1">
+    <row r="481" spans="1:9">
       <c r="A481">
         <v>15066</v>
       </c>
@@ -15456,7 +15457,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="482" spans="1:9" hidden="1">
+    <row r="482" spans="1:9">
       <c r="A482">
         <v>15066</v>
       </c>
@@ -15612,7 +15613,7 @@
         <v>45239</v>
       </c>
       <c r="D487" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E487">
         <v>1</v>
@@ -15630,7 +15631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="488" spans="1:9" hidden="1">
+    <row r="488" spans="1:9">
       <c r="A488">
         <v>15103</v>
       </c>
@@ -15659,7 +15660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="489" spans="1:9" hidden="1">
+    <row r="489" spans="1:9">
       <c r="A489">
         <v>15112</v>
       </c>
@@ -15717,7 +15718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="491" spans="1:9" hidden="1">
+    <row r="491" spans="1:9">
       <c r="A491">
         <v>15112</v>
       </c>
@@ -15746,7 +15747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="492" spans="1:9" hidden="1">
+    <row r="492" spans="1:9">
       <c r="A492">
         <v>15112</v>
       </c>
@@ -15862,7 +15863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="496" spans="1:9" hidden="1">
+    <row r="496" spans="1:9">
       <c r="A496">
         <v>15140</v>
       </c>
@@ -17178,7 +17179,7 @@
         <v>45239</v>
       </c>
       <c r="D541" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E541">
         <v>1</v>
@@ -19324,7 +19325,7 @@
         <v>45239</v>
       </c>
       <c r="D615" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E615">
         <v>1</v>
@@ -21789,7 +21790,7 @@
         <v>45237</v>
       </c>
       <c r="D700" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E700">
         <v>1</v>
@@ -23007,7 +23008,7 @@
         <v>45239</v>
       </c>
       <c r="D742" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E742">
         <v>1</v>
@@ -23500,7 +23501,7 @@
         <v>45240</v>
       </c>
       <c r="D759" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E759">
         <v>1</v>
@@ -25269,7 +25270,7 @@
         <v>45239</v>
       </c>
       <c r="D820" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E820">
         <v>1</v>
@@ -25588,7 +25589,7 @@
         <v>45240</v>
       </c>
       <c r="D831" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E831">
         <v>1</v>
@@ -26487,7 +26488,7 @@
         <v>45238</v>
       </c>
       <c r="D862" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E862">
         <v>1</v>
@@ -27551,31 +27552,31 @@
     </row>
     <row r="899" spans="1:9" hidden="1">
       <c r="A899">
-        <v>14948</v>
+        <v>14978</v>
       </c>
       <c r="B899" t="s">
         <v>196</v>
       </c>
       <c r="C899" s="1">
-        <v>45236</v>
+        <v>45234</v>
       </c>
       <c r="D899" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="E899">
         <v>1</v>
       </c>
       <c r="F899">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="G899">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="H899">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="I899">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="900" spans="1:9" hidden="1">
@@ -27589,22 +27590,22 @@
         <v>45236</v>
       </c>
       <c r="D900" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="E900">
         <v>1</v>
       </c>
       <c r="F900">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="G900">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="H900">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I900">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="901" spans="1:9" hidden="1">
@@ -27618,22 +27619,22 @@
         <v>45236</v>
       </c>
       <c r="D901" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E901">
         <v>1</v>
       </c>
       <c r="F901">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="G901">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="H901">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I901">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="902" spans="1:9" hidden="1">
@@ -27647,22 +27648,22 @@
         <v>45236</v>
       </c>
       <c r="D902" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="E902">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F902">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="G902">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="H902">
-        <v>3.56666666666667</v>
+        <v>12</v>
       </c>
       <c r="I902">
-        <v>7.13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="903" spans="1:9" hidden="1">
@@ -27676,51 +27677,51 @@
         <v>45236</v>
       </c>
       <c r="D903" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="E903">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F903">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="G903">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="H903">
-        <v>75</v>
+        <v>3.56666666666667</v>
       </c>
       <c r="I903">
-        <v>75</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="904" spans="1:9" hidden="1">
       <c r="A904">
-        <v>14971</v>
+        <v>14948</v>
       </c>
       <c r="B904" t="s">
         <v>196</v>
       </c>
       <c r="C904" s="1">
-        <v>45237</v>
+        <v>45236</v>
       </c>
       <c r="D904" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E904">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F904">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="G904">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="H904">
-        <v>1.78571428571429</v>
+        <v>75</v>
       </c>
       <c r="I904">
-        <v>3.57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="905" spans="1:9" hidden="1">
@@ -27734,22 +27735,22 @@
         <v>45237</v>
       </c>
       <c r="D905" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E905">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F905">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G905">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H905">
-        <v>5</v>
+        <v>1.78571428571429</v>
       </c>
       <c r="I905">
-        <v>20</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="906" spans="1:9" hidden="1">
@@ -27763,22 +27764,22 @@
         <v>45237</v>
       </c>
       <c r="D906" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E906">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F906">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G906">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="H906">
-        <v>2.6388888888888902</v>
+        <v>5</v>
       </c>
       <c r="I906">
-        <v>13.19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="907" spans="1:9" hidden="1">
@@ -27792,22 +27793,22 @@
         <v>45237</v>
       </c>
       <c r="D907" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E907">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F907">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G907">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H907">
-        <v>2.8333333333333299</v>
+        <v>2.6388888888888902</v>
       </c>
       <c r="I907">
-        <v>2.83</v>
+        <v>13.19</v>
       </c>
     </row>
     <row r="908" spans="1:9" hidden="1">
@@ -27821,22 +27822,22 @@
         <v>45237</v>
       </c>
       <c r="D908" t="s">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="E908">
         <v>1</v>
       </c>
       <c r="F908">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G908">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H908">
-        <v>2.25</v>
+        <v>2.8333333333333299</v>
       </c>
       <c r="I908">
-        <v>2.25</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="909" spans="1:9" hidden="1">
@@ -27850,22 +27851,22 @@
         <v>45237</v>
       </c>
       <c r="D909" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="E909">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F909">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G909">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H909">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="I909">
-        <v>4</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="910" spans="1:9" hidden="1">
@@ -27879,22 +27880,22 @@
         <v>45237</v>
       </c>
       <c r="D910" t="s">
-        <v>199</v>
+        <v>62</v>
       </c>
       <c r="E910">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F910">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G910">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="H910">
-        <v>1.52</v>
+        <v>2</v>
       </c>
       <c r="I910">
-        <v>1.52</v>
+        <v>4</v>
       </c>
     </row>
     <row r="911" spans="1:9" hidden="1">
@@ -27908,51 +27909,51 @@
         <v>45237</v>
       </c>
       <c r="D911" t="s">
-        <v>89</v>
+        <v>199</v>
       </c>
       <c r="E911">
         <v>1</v>
       </c>
       <c r="F911">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G911">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H911">
-        <v>5</v>
+        <v>1.52</v>
       </c>
       <c r="I911">
-        <v>5</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="912" spans="1:9" hidden="1">
       <c r="A912">
-        <v>14978</v>
+        <v>14971</v>
       </c>
       <c r="B912" t="s">
         <v>196</v>
       </c>
       <c r="C912" s="1">
-        <v>45234</v>
+        <v>45237</v>
       </c>
       <c r="D912" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="E912">
         <v>1</v>
       </c>
       <c r="F912">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G912">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H912">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="I912">
-        <v>1.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="913" spans="1:9" hidden="1">
@@ -28662,7 +28663,7 @@
         <v>45239</v>
       </c>
       <c r="D937" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E937">
         <v>1</v>
@@ -29032,9 +29033,19 @@
   <autoFilter ref="A1:I949" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="เต้ย"/>
+        <filter val="มล"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="greaterThan" val="1"/>
+      </customFilters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I949">
+      <sortCondition ref="B2:B949"/>
+      <sortCondition ref="C2:C949"/>
+      <sortCondition ref="A2:A949"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
